--- a/www.eia.gov/electricity/monthly/xls/table_es1a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_es1a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="59">
   <si>
     <t>Table ES1.A. Total Electric Power Industry Summary Statistics, 2016 and 2015</t>
   </si>
@@ -30,7 +30,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Net Generation and Consumption of Fuels for October</t>
+    <t>Net Generation and Consumption of Fuels for November</t>
   </si>
   <si>
     <t/>
@@ -68,10 +68,10 @@
     <t>Facility Type</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -89,12 +89,12 @@
     <t>Petroleum Liquids</t>
   </si>
   <si>
+    <t>NM</t>
+  </si>
+  <si>
     <t>Petroleum Coke</t>
   </si>
   <si>
-    <t>NM</t>
-  </si>
-  <si>
     <t>Natural Gas</t>
   </si>
   <si>
@@ -176,7 +176,7 @@
     <t>W</t>
   </si>
   <si>
-    <t>Sales, Revenue, and Average Price of Electricity to Ultimate Customers for October</t>
+    <t>Sales, Revenue, and Average Price of Electricity to Ultimate Customers for November</t>
   </si>
   <si>
     <t>Total U.S. Electric Power Industry</t>
@@ -1384,37 +1384,37 @@
         <v>19</v>
       </c>
       <c r="C8" s="12">
-        <v>99348</v>
+        <v>87000</v>
       </c>
       <c r="D8" s="12">
-        <v>96759</v>
+        <v>87227</v>
       </c>
       <c r="E8" s="13">
-        <v>2.7E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="F8" s="12">
-        <v>73088</v>
+        <v>64946</v>
       </c>
       <c r="G8" s="12">
-        <v>71408</v>
+        <v>64191</v>
       </c>
       <c r="H8" s="12">
-        <v>25547</v>
+        <v>21420</v>
       </c>
       <c r="I8" s="12">
-        <v>24463</v>
+        <v>22171</v>
       </c>
       <c r="J8" s="12">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K8" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L8" s="12">
-        <v>677</v>
+        <v>595</v>
       </c>
       <c r="M8" s="12">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="N8" s="12">
         <v>0</v>
@@ -1431,37 +1431,37 @@
         <v>19</v>
       </c>
       <c r="C9" s="12">
-        <v>941</v>
+        <v>1058</v>
       </c>
       <c r="D9" s="12">
-        <v>945</v>
+        <v>995</v>
       </c>
       <c r="E9" s="13">
-        <v>-4.0000000000000001E-3</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F9" s="12">
-        <v>633</v>
+        <v>673</v>
       </c>
       <c r="G9" s="12">
-        <v>682</v>
+        <v>718</v>
       </c>
       <c r="H9" s="12">
-        <v>236</v>
+        <v>338</v>
       </c>
       <c r="I9" s="12">
-        <v>216</v>
-      </c>
-      <c r="J9" s="12">
-        <v>8</v>
+        <v>235</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="K9" s="12">
         <v>6</v>
       </c>
       <c r="L9" s="12">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="M9" s="12">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N9" s="12">
         <v>0</v>
@@ -1472,43 +1472,43 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="12">
-        <v>611</v>
+        <v>781</v>
       </c>
       <c r="D10" s="12">
-        <v>827</v>
+        <v>715</v>
       </c>
       <c r="E10" s="13">
-        <v>-0.26100000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="F10" s="12">
-        <v>418</v>
+        <v>596</v>
       </c>
       <c r="G10" s="12">
-        <v>610</v>
+        <v>490</v>
       </c>
       <c r="H10" s="12">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="I10" s="12">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J10" s="12">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="K10" s="12">
         <v>1</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>22</v>
+      <c r="L10" s="12">
+        <v>69</v>
       </c>
       <c r="M10" s="12">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N10" s="12">
         <v>0</v>
@@ -1525,37 +1525,37 @@
         <v>19</v>
       </c>
       <c r="C11" s="12">
-        <v>102635</v>
+        <v>94586</v>
       </c>
       <c r="D11" s="12">
-        <v>110005</v>
+        <v>102236</v>
       </c>
       <c r="E11" s="13">
-        <v>-6.7000000000000004E-2</v>
+        <v>-7.4999999999999997E-2</v>
       </c>
       <c r="F11" s="12">
-        <v>47527</v>
+        <v>43773</v>
       </c>
       <c r="G11" s="12">
-        <v>49533</v>
+        <v>47590</v>
       </c>
       <c r="H11" s="12">
-        <v>47008</v>
+        <v>42440</v>
       </c>
       <c r="I11" s="12">
-        <v>52489</v>
+        <v>46542</v>
       </c>
       <c r="J11" s="12">
+        <v>591</v>
+      </c>
+      <c r="K11" s="12">
         <v>583</v>
       </c>
-      <c r="K11" s="12">
-        <v>643</v>
-      </c>
       <c r="L11" s="12">
-        <v>7517</v>
+        <v>7782</v>
       </c>
       <c r="M11" s="12">
-        <v>7340</v>
+        <v>7521</v>
       </c>
       <c r="N11" s="12">
         <v>0</v>
@@ -1572,25 +1572,25 @@
         <v>19</v>
       </c>
       <c r="C12" s="12">
-        <v>891</v>
+        <v>1001</v>
       </c>
       <c r="D12" s="12">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="E12" s="13">
-        <v>-1.7000000000000001E-2</v>
+        <v>0.11</v>
       </c>
       <c r="F12" s="12">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G12" s="12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H12" s="12">
-        <v>239</v>
+        <v>338</v>
       </c>
       <c r="I12" s="12">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="J12" s="12">
         <v>0</v>
@@ -1599,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="12">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="M12" s="12">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="N12" s="12">
         <v>0</v>
@@ -1619,25 +1619,25 @@
         <v>19</v>
       </c>
       <c r="C13" s="12">
-        <v>60733</v>
+        <v>65179</v>
       </c>
       <c r="D13" s="12">
-        <v>60571</v>
+        <v>60264</v>
       </c>
       <c r="E13" s="13">
-        <v>3.0000000000000001E-3</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F13" s="12">
-        <v>30016</v>
+        <v>33082</v>
       </c>
       <c r="G13" s="12">
-        <v>31886</v>
+        <v>30751</v>
       </c>
       <c r="H13" s="12">
-        <v>30717</v>
+        <v>32097</v>
       </c>
       <c r="I13" s="12">
-        <v>28685</v>
+        <v>29513</v>
       </c>
       <c r="J13" s="12">
         <v>0</v>
@@ -1666,37 +1666,37 @@
         <v>19</v>
       </c>
       <c r="C14" s="12">
-        <v>17249</v>
+        <v>18815</v>
       </c>
       <c r="D14" s="12">
-        <v>16630</v>
+        <v>19338</v>
       </c>
       <c r="E14" s="13">
-        <v>3.6999999999999998E-2</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="F14" s="12">
-        <v>16101</v>
+        <v>17741</v>
       </c>
       <c r="G14" s="12">
-        <v>15378</v>
+        <v>17901</v>
       </c>
       <c r="H14" s="12">
-        <v>1065</v>
+        <v>1003</v>
       </c>
       <c r="I14" s="12">
-        <v>1135</v>
+        <v>1301</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K14" s="12">
         <v>3</v>
       </c>
       <c r="L14" s="12">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="M14" s="12">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="N14" s="12">
         <v>0</v>
@@ -1713,37 +1713,37 @@
         <v>19</v>
       </c>
       <c r="C15" s="12">
-        <v>29857</v>
+        <v>28516</v>
       </c>
       <c r="D15" s="12">
-        <v>24708</v>
+        <v>28065</v>
       </c>
       <c r="E15" s="13">
-        <v>0.20799999999999999</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F15" s="12">
-        <v>3649</v>
+        <v>3775</v>
       </c>
       <c r="G15" s="12">
-        <v>3375</v>
+        <v>3776</v>
       </c>
       <c r="H15" s="12">
-        <v>23680</v>
+        <v>22125</v>
       </c>
       <c r="I15" s="12">
-        <v>18743</v>
+        <v>21645</v>
       </c>
       <c r="J15" s="12">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="K15" s="12">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L15" s="12">
-        <v>2277</v>
+        <v>2381</v>
       </c>
       <c r="M15" s="12">
-        <v>2324</v>
+        <v>2381</v>
       </c>
       <c r="N15" s="12">
         <v>0</v>
@@ -1760,37 +1760,37 @@
         <v>19</v>
       </c>
       <c r="C16" s="12">
-        <v>20376</v>
+        <v>19334</v>
       </c>
       <c r="D16" s="12">
-        <v>16380</v>
+        <v>19682</v>
       </c>
       <c r="E16" s="13">
-        <v>0.24399999999999999</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="F16" s="12">
-        <v>3076</v>
+        <v>3214</v>
       </c>
       <c r="G16" s="12">
-        <v>2822</v>
+        <v>3216</v>
       </c>
       <c r="H16" s="12">
-        <v>17283</v>
+        <v>16102</v>
       </c>
       <c r="I16" s="12">
-        <v>13541</v>
+        <v>16447</v>
       </c>
       <c r="J16" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K16" s="12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L16" s="12">
+        <v>7</v>
+      </c>
+      <c r="M16" s="12">
         <v>6</v>
-      </c>
-      <c r="M16" s="12">
-        <v>5</v>
       </c>
       <c r="N16" s="12">
         <v>0</v>
@@ -1807,37 +1807,37 @@
         <v>19</v>
       </c>
       <c r="C17" s="12">
-        <v>3132</v>
+        <v>2642</v>
       </c>
       <c r="D17" s="12">
-        <v>1910</v>
+        <v>1730</v>
       </c>
       <c r="E17" s="13">
-        <v>0.64</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="F17" s="12">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="G17" s="12">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="H17" s="12">
-        <v>2908</v>
+        <v>2458</v>
       </c>
       <c r="I17" s="12">
-        <v>1762</v>
+        <v>1599</v>
       </c>
       <c r="J17" s="12">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K17" s="12">
-        <v>32</v>
-      </c>
-      <c r="L17" s="12">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="M17" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" s="12">
         <v>0</v>
@@ -1854,37 +1854,37 @@
         <v>19</v>
       </c>
       <c r="C18" s="12">
-        <v>3105</v>
+        <v>3257</v>
       </c>
       <c r="D18" s="12">
-        <v>3252</v>
+        <v>3418</v>
       </c>
       <c r="E18" s="13">
-        <v>-4.4999999999999998E-2</v>
+        <v>-4.7E-2</v>
       </c>
       <c r="F18" s="12">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="G18" s="12">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="H18" s="12">
-        <v>738</v>
+        <v>776</v>
       </c>
       <c r="I18" s="12">
-        <v>826</v>
+        <v>914</v>
       </c>
       <c r="J18" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K18" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L18" s="12">
-        <v>2181</v>
+        <v>2281</v>
       </c>
       <c r="M18" s="12">
-        <v>2201</v>
+        <v>2259</v>
       </c>
       <c r="N18" s="12">
         <v>0</v>
@@ -1901,37 +1901,37 @@
         <v>19</v>
       </c>
       <c r="C19" s="12">
-        <v>1755</v>
+        <v>1777</v>
       </c>
       <c r="D19" s="12">
-        <v>1843</v>
+        <v>1902</v>
       </c>
       <c r="E19" s="13">
-        <v>-4.8000000000000001E-2</v>
+        <v>-6.6000000000000003E-2</v>
       </c>
       <c r="F19" s="12">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G19" s="12">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H19" s="12">
-        <v>1358</v>
+        <v>1376</v>
       </c>
       <c r="I19" s="12">
-        <v>1387</v>
+        <v>1444</v>
       </c>
       <c r="J19" s="12">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="K19" s="12">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L19" s="12">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M19" s="12">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N19" s="12">
         <v>0</v>
@@ -1948,25 +1948,25 @@
         <v>19</v>
       </c>
       <c r="C20" s="12">
-        <v>1489</v>
+        <v>1507</v>
       </c>
       <c r="D20" s="12">
-        <v>1323</v>
+        <v>1334</v>
       </c>
       <c r="E20" s="13">
-        <v>0.126</v>
+        <v>0.13</v>
       </c>
       <c r="F20" s="12">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G20" s="12">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H20" s="12">
-        <v>1393</v>
+        <v>1412</v>
       </c>
       <c r="I20" s="12">
-        <v>1226</v>
+        <v>1240</v>
       </c>
       <c r="J20" s="12">
         <v>0</v>
@@ -1995,25 +1995,25 @@
         <v>19</v>
       </c>
       <c r="C21" s="12">
-        <v>-561</v>
+        <v>-607</v>
       </c>
       <c r="D21" s="12">
-        <v>-443</v>
+        <v>-285</v>
       </c>
       <c r="E21" s="13">
-        <v>0.26500000000000001</v>
+        <v>1.127</v>
       </c>
       <c r="F21" s="12">
-        <v>-471</v>
+        <v>-522</v>
       </c>
       <c r="G21" s="12">
-        <v>-364</v>
+        <v>-218</v>
       </c>
       <c r="H21" s="12">
-        <v>-90</v>
+        <v>-85</v>
       </c>
       <c r="I21" s="12">
-        <v>-79</v>
+        <v>-67</v>
       </c>
       <c r="J21" s="12">
         <v>0</v>
@@ -2042,37 +2042,37 @@
         <v>19</v>
       </c>
       <c r="C22" s="12">
-        <v>1083</v>
+        <v>1093</v>
       </c>
       <c r="D22" s="12">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="E22" s="13">
-        <v>-0.10100000000000001</v>
+        <v>-8.6999999999999994E-2</v>
       </c>
       <c r="F22" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G22" s="12">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H22" s="12">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="I22" s="12">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="J22" s="12">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K22" s="12">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L22" s="12">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M22" s="12">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="N22" s="12">
         <v>0</v>
@@ -2089,37 +2089,37 @@
         <v>19</v>
       </c>
       <c r="C23" s="12">
-        <v>312788</v>
+        <v>297422</v>
       </c>
       <c r="D23" s="12">
-        <v>312112</v>
+        <v>300653</v>
       </c>
       <c r="E23" s="13">
-        <v>2E-3</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="F23" s="12">
-        <v>170993</v>
+        <v>164111</v>
       </c>
       <c r="G23" s="12">
-        <v>172561</v>
+        <v>165247</v>
       </c>
       <c r="H23" s="12">
-        <v>129109</v>
+        <v>120368</v>
       </c>
       <c r="I23" s="12">
-        <v>126607</v>
+        <v>122304</v>
       </c>
       <c r="J23" s="12">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="K23" s="12">
-        <v>1049</v>
+        <v>992</v>
       </c>
       <c r="L23" s="12">
-        <v>11719</v>
+        <v>11983</v>
       </c>
       <c r="M23" s="12">
-        <v>11894</v>
+        <v>12110</v>
       </c>
       <c r="N23" s="12">
         <v>0</v>
@@ -2183,13 +2183,13 @@
         <v>37</v>
       </c>
       <c r="C25" s="12">
-        <v>1609</v>
+        <v>1307</v>
       </c>
       <c r="D25" s="12">
-        <v>1198</v>
+        <v>982</v>
       </c>
       <c r="E25" s="13">
-        <v>0.34399999999999997</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="F25" s="12">
         <v>0</v>
@@ -2204,22 +2204,22 @@
         <v>0</v>
       </c>
       <c r="J25" s="12">
-        <v>578</v>
+        <v>467</v>
       </c>
       <c r="K25" s="12">
-        <v>455</v>
+        <v>367</v>
       </c>
       <c r="L25" s="12">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="M25" s="12">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N25" s="12">
-        <v>875</v>
+        <v>717</v>
       </c>
       <c r="O25" s="12">
-        <v>618</v>
+        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2230,43 +2230,43 @@
         <v>39</v>
       </c>
       <c r="C26" s="12">
-        <v>4492</v>
+        <v>3766</v>
       </c>
       <c r="D26" s="12">
-        <v>2897</v>
+        <v>2507</v>
       </c>
       <c r="E26" s="13">
-        <v>0.55100000000000005</v>
+        <v>0.502</v>
       </c>
       <c r="F26" s="12">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="G26" s="12">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H26" s="12">
-        <v>2662</v>
+        <v>2278</v>
       </c>
       <c r="I26" s="12">
-        <v>1558</v>
+        <v>1398</v>
       </c>
       <c r="J26" s="12">
-        <v>622</v>
+        <v>505</v>
       </c>
       <c r="K26" s="12">
-        <v>488</v>
-      </c>
-      <c r="L26" s="12">
-        <v>158</v>
+        <v>394</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="M26" s="12">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="N26" s="12">
-        <v>875</v>
+        <v>717</v>
       </c>
       <c r="O26" s="12">
-        <v>618</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2277,43 +2277,43 @@
         <v>39</v>
       </c>
       <c r="C27" s="12">
-        <v>4741</v>
+        <v>3950</v>
       </c>
       <c r="D27" s="12">
-        <v>3107</v>
+        <v>2712</v>
       </c>
       <c r="E27" s="13">
-        <v>0.52600000000000002</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="F27" s="12">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="G27" s="12">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="H27" s="12">
-        <v>2908</v>
+        <v>2458</v>
       </c>
       <c r="I27" s="12">
-        <v>1762</v>
+        <v>1599</v>
       </c>
       <c r="J27" s="12">
-        <v>622</v>
+        <v>505</v>
       </c>
       <c r="K27" s="12">
-        <v>488</v>
-      </c>
-      <c r="L27" s="12">
-        <v>158</v>
+        <v>394</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="M27" s="12">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="N27" s="12">
-        <v>875</v>
+        <v>717</v>
       </c>
       <c r="O27" s="12">
-        <v>618</v>
+        <v>515</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2343,37 +2343,37 @@
         <v>19</v>
       </c>
       <c r="C29" s="12">
-        <v>54638</v>
+        <v>48126</v>
       </c>
       <c r="D29" s="12">
-        <v>53659</v>
+        <v>48943</v>
       </c>
       <c r="E29" s="13">
-        <v>1.7999999999999999E-2</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="F29" s="12">
-        <v>39517</v>
+        <v>35274</v>
       </c>
       <c r="G29" s="12">
-        <v>39023</v>
+        <v>35427</v>
       </c>
       <c r="H29" s="12">
-        <v>14860</v>
+        <v>12624</v>
       </c>
       <c r="I29" s="12">
-        <v>14309</v>
+        <v>13209</v>
       </c>
       <c r="J29" s="12">
         <v>13</v>
       </c>
       <c r="K29" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L29" s="12">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="M29" s="12">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="N29" s="12">
         <v>0</v>
@@ -2390,25 +2390,25 @@
         <v>19</v>
       </c>
       <c r="C30" s="12">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="D30" s="12">
-        <v>1541</v>
+        <v>1720</v>
       </c>
       <c r="E30" s="13">
-        <v>1.6E-2</v>
+        <v>-9.2999999999999999E-2</v>
       </c>
       <c r="F30" s="12">
-        <v>1140</v>
+        <v>1198</v>
       </c>
       <c r="G30" s="12">
-        <v>1215</v>
+        <v>1348</v>
       </c>
       <c r="H30" s="12">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="I30" s="12">
-        <v>273</v>
+        <v>324</v>
       </c>
       <c r="J30" s="12">
         <v>11</v>
@@ -2417,10 +2417,10 @@
         <v>7</v>
       </c>
       <c r="L30" s="12">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M30" s="12">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="N30" s="12">
         <v>0</v>
@@ -2437,37 +2437,37 @@
         <v>19</v>
       </c>
       <c r="C31" s="12">
-        <v>246</v>
+        <v>304</v>
       </c>
       <c r="D31" s="12">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="E31" s="13">
-        <v>-0.17899999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="F31" s="12">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="G31" s="12">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="H31" s="12">
+        <v>47</v>
+      </c>
+      <c r="I31" s="12">
         <v>62</v>
       </c>
-      <c r="I31" s="12">
-        <v>57</v>
-      </c>
       <c r="J31" s="12">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="K31" s="12">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="L31" s="12">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N31" s="12">
         <v>0</v>
@@ -2484,37 +2484,37 @@
         <v>19</v>
       </c>
       <c r="C32" s="12">
-        <v>775514</v>
+        <v>700215</v>
       </c>
       <c r="D32" s="12">
-        <v>824878</v>
+        <v>767336</v>
       </c>
       <c r="E32" s="13">
-        <v>-0.06</v>
+        <v>-8.6999999999999994E-2</v>
       </c>
       <c r="F32" s="12">
-        <v>368436</v>
+        <v>332389</v>
       </c>
       <c r="G32" s="12">
-        <v>380830</v>
+        <v>366510</v>
       </c>
       <c r="H32" s="12">
-        <v>350473</v>
+        <v>307969</v>
       </c>
       <c r="I32" s="12">
-        <v>386725</v>
+        <v>342625</v>
       </c>
       <c r="J32" s="12">
-        <v>5144</v>
+        <v>5332</v>
       </c>
       <c r="K32" s="12">
-        <v>5943</v>
+        <v>5470</v>
       </c>
       <c r="L32" s="12">
-        <v>51461</v>
+        <v>54526</v>
       </c>
       <c r="M32" s="12">
-        <v>51380</v>
+        <v>52732</v>
       </c>
       <c r="N32" s="12">
         <v>0</v>
@@ -2550,37 +2550,37 @@
         <v>19</v>
       </c>
       <c r="C34" s="12">
-        <v>1006</v>
+        <v>1036</v>
       </c>
       <c r="D34" s="12">
-        <v>1245</v>
+        <v>1321</v>
       </c>
       <c r="E34" s="13">
-        <v>-0.192</v>
+        <v>-0.216</v>
       </c>
       <c r="F34" s="12">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G34" s="12">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="H34" s="12">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="I34" s="12">
         <v>145</v>
       </c>
       <c r="J34" s="12">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K34" s="12">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L34" s="12">
-        <v>745</v>
+        <v>784</v>
       </c>
       <c r="M34" s="12">
-        <v>979</v>
+        <v>1030</v>
       </c>
       <c r="N34" s="12">
         <v>0</v>
@@ -2597,37 +2597,37 @@
         <v>19</v>
       </c>
       <c r="C35" s="12">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="D35" s="12">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="E35" s="13">
-        <v>2.5000000000000001E-2</v>
+        <v>-9.1999999999999998E-2</v>
       </c>
       <c r="F35" s="12">
-        <v>0.28000000000000003</v>
+        <v>0.35</v>
       </c>
       <c r="G35" s="12">
         <v>1</v>
       </c>
       <c r="H35" s="12">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I35" s="12">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="J35" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K35" s="12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L35" s="12">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="M35" s="12">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="N35" s="12">
         <v>0</v>
@@ -2644,37 +2644,37 @@
         <v>19</v>
       </c>
       <c r="C36" s="12">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="D36" s="12">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="E36" s="13">
-        <v>0.34300000000000003</v>
+        <v>-0.27</v>
       </c>
       <c r="F36" s="12">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="G36" s="12">
-        <v>0.43</v>
+        <v>3</v>
       </c>
       <c r="H36" s="12">
+        <v>9</v>
+      </c>
+      <c r="I36" s="12">
         <v>10</v>
       </c>
-      <c r="I36" s="12">
-        <v>8</v>
-      </c>
       <c r="J36" s="12">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="K36" s="12">
         <v>2</v>
       </c>
       <c r="L36" s="12">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="M36" s="12">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="N36" s="12">
         <v>0</v>
@@ -2691,37 +2691,37 @@
         <v>19</v>
       </c>
       <c r="C37" s="12">
-        <v>76146</v>
+        <v>77456</v>
       </c>
       <c r="D37" s="12">
-        <v>78745</v>
+        <v>77684</v>
       </c>
       <c r="E37" s="13">
-        <v>-3.3000000000000002E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="F37" s="12">
-        <v>695</v>
+        <v>875</v>
       </c>
       <c r="G37" s="12">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="H37" s="12">
-        <v>21651</v>
+        <v>21756</v>
       </c>
       <c r="I37" s="12">
-        <v>23297</v>
+        <v>22566</v>
       </c>
       <c r="J37" s="12">
-        <v>3598</v>
+        <v>3798</v>
       </c>
       <c r="K37" s="12">
-        <v>3788</v>
+        <v>3845</v>
       </c>
       <c r="L37" s="12">
-        <v>50201</v>
+        <v>51027</v>
       </c>
       <c r="M37" s="12">
-        <v>50972</v>
+        <v>50561</v>
       </c>
       <c r="N37" s="12">
         <v>0</v>
@@ -2757,37 +2757,37 @@
         <v>19</v>
       </c>
       <c r="C39" s="12">
-        <v>55643</v>
+        <v>49162</v>
       </c>
       <c r="D39" s="12">
-        <v>54904</v>
+        <v>50264</v>
       </c>
       <c r="E39" s="13">
-        <v>1.2999999999999999E-2</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="F39" s="12">
-        <v>39594</v>
+        <v>35358</v>
       </c>
       <c r="G39" s="12">
-        <v>39104</v>
+        <v>35526</v>
       </c>
       <c r="H39" s="12">
-        <v>15007</v>
+        <v>12744</v>
       </c>
       <c r="I39" s="12">
-        <v>14453</v>
+        <v>13353</v>
       </c>
       <c r="J39" s="12">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K39" s="12">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="L39" s="12">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="M39" s="12">
-        <v>1296</v>
+        <v>1325</v>
       </c>
       <c r="N39" s="12">
         <v>0</v>
@@ -2804,37 +2804,37 @@
         <v>19</v>
       </c>
       <c r="C40" s="12">
-        <v>1797</v>
+        <v>1744</v>
       </c>
       <c r="D40" s="12">
-        <v>1766</v>
+        <v>1923</v>
       </c>
       <c r="E40" s="13">
-        <v>1.7000000000000001E-2</v>
+        <v>-9.2999999999999999E-2</v>
       </c>
       <c r="F40" s="12">
-        <v>1140</v>
+        <v>1198</v>
       </c>
       <c r="G40" s="12">
-        <v>1216</v>
+        <v>1349</v>
       </c>
       <c r="H40" s="12">
-        <v>441</v>
+        <v>384</v>
       </c>
       <c r="I40" s="12">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="J40" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K40" s="12">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="L40" s="12">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="M40" s="12">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="N40" s="12">
         <v>0</v>
@@ -2851,37 +2851,37 @@
         <v>19</v>
       </c>
       <c r="C41" s="12">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="D41" s="12">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="E41" s="13">
-        <v>-6.5000000000000002E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F41" s="12">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="G41" s="12">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="H41" s="12">
+        <v>56</v>
+      </c>
+      <c r="I41" s="12">
         <v>72</v>
       </c>
-      <c r="I41" s="12">
-        <v>65</v>
-      </c>
       <c r="J41" s="12">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="K41" s="12">
         <v>2</v>
       </c>
       <c r="L41" s="12">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="M41" s="12">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="N41" s="12">
         <v>0</v>
@@ -2898,37 +2898,37 @@
         <v>19</v>
       </c>
       <c r="C42" s="12">
-        <v>851659</v>
+        <v>777672</v>
       </c>
       <c r="D42" s="12">
-        <v>903623</v>
+        <v>845020</v>
       </c>
       <c r="E42" s="13">
-        <v>-5.8000000000000003E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="F42" s="12">
-        <v>369130</v>
+        <v>333264</v>
       </c>
       <c r="G42" s="12">
-        <v>381518</v>
+        <v>367223</v>
       </c>
       <c r="H42" s="12">
-        <v>372124</v>
+        <v>329725</v>
       </c>
       <c r="I42" s="12">
-        <v>410022</v>
+        <v>365190</v>
       </c>
       <c r="J42" s="12">
-        <v>8742</v>
+        <v>9130</v>
       </c>
       <c r="K42" s="12">
-        <v>9731</v>
+        <v>9315</v>
       </c>
       <c r="L42" s="12">
-        <v>101663</v>
+        <v>105553</v>
       </c>
       <c r="M42" s="12">
-        <v>102351</v>
+        <v>103292</v>
       </c>
       <c r="N42" s="12">
         <v>0</v>
@@ -2964,37 +2964,37 @@
         <v>19</v>
       </c>
       <c r="C44" s="12">
-        <v>165042</v>
+        <v>173744</v>
       </c>
       <c r="D44" s="12">
-        <v>178243</v>
+        <v>191343</v>
       </c>
       <c r="E44" s="13">
-        <v>-7.3999999999999996E-2</v>
+        <v>-9.1999999999999998E-2</v>
       </c>
       <c r="F44" s="12">
-        <v>133257</v>
+        <v>139080</v>
       </c>
       <c r="G44" s="12">
-        <v>138712</v>
+        <v>149168</v>
       </c>
       <c r="H44" s="12">
-        <v>30217</v>
+        <v>33059</v>
       </c>
       <c r="I44" s="12">
-        <v>36876</v>
+        <v>39427</v>
       </c>
       <c r="J44" s="12">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K44" s="12">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L44" s="12">
-        <v>1432</v>
+        <v>1464</v>
       </c>
       <c r="M44" s="12">
-        <v>2397</v>
+        <v>2487</v>
       </c>
       <c r="N44" s="12">
         <v>0</v>
@@ -3011,37 +3011,37 @@
         <v>19</v>
       </c>
       <c r="C45" s="12">
-        <v>36317</v>
+        <v>32480</v>
       </c>
       <c r="D45" s="12">
-        <v>34776</v>
+        <v>35872</v>
       </c>
       <c r="E45" s="13">
-        <v>4.3999999999999997E-2</v>
+        <v>-9.5000000000000001E-2</v>
       </c>
       <c r="F45" s="12">
-        <v>20157</v>
+        <v>20372</v>
       </c>
       <c r="G45" s="12">
-        <v>21540</v>
+        <v>21946</v>
       </c>
       <c r="H45" s="12">
-        <v>14448</v>
+        <v>10475</v>
       </c>
       <c r="I45" s="12">
-        <v>10922</v>
+        <v>11542</v>
       </c>
       <c r="J45" s="12">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="K45" s="12">
-        <v>564</v>
+        <v>609</v>
       </c>
       <c r="L45" s="12">
-        <v>1336</v>
+        <v>1314</v>
       </c>
       <c r="M45" s="12">
-        <v>1749</v>
+        <v>1776</v>
       </c>
       <c r="N45" s="12">
         <v>0</v>
@@ -3058,25 +3058,25 @@
         <v>19</v>
       </c>
       <c r="C46" s="12">
-        <v>971</v>
+        <v>985</v>
       </c>
       <c r="D46" s="12">
-        <v>1599</v>
+        <v>1719</v>
       </c>
       <c r="E46" s="13">
-        <v>-0.39300000000000002</v>
+        <v>-0.42699999999999999</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G46" s="12">
-        <v>1026</v>
+      <c r="G46" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I46" s="12">
-        <v>125</v>
+      <c r="I46" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="J46" s="12" t="s">
         <v>49</v>
@@ -3222,31 +3222,31 @@
         <v>8</v>
       </c>
       <c r="B53" s="12">
-        <v>101138</v>
+        <v>92797</v>
       </c>
       <c r="C53" s="12">
-        <v>99349</v>
+        <v>92678</v>
       </c>
       <c r="D53" s="13">
-        <v>1.7999999999999999E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="E53" s="12">
-        <v>12595</v>
+        <v>11829</v>
       </c>
       <c r="F53" s="12">
-        <v>12633</v>
+        <v>11775</v>
       </c>
       <c r="G53" s="13">
-        <v>-3.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H53" s="15">
-        <v>12.45</v>
+        <v>12.75</v>
       </c>
       <c r="I53" s="15">
-        <v>12.72</v>
+        <v>12.71</v>
       </c>
       <c r="J53" s="13">
-        <v>-2.1000000000000001E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -3254,31 +3254,31 @@
         <v>6</v>
       </c>
       <c r="B54" s="12">
-        <v>112314</v>
+        <v>104451</v>
       </c>
       <c r="C54" s="12">
-        <v>112821</v>
+        <v>104140</v>
       </c>
       <c r="D54" s="13">
-        <v>-4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E54" s="12">
-        <v>11755</v>
+        <v>10707</v>
       </c>
       <c r="F54" s="12">
-        <v>12100</v>
+        <v>10722</v>
       </c>
       <c r="G54" s="13">
-        <v>-2.9000000000000001E-2</v>
+        <v>-1E-3</v>
       </c>
       <c r="H54" s="15">
-        <v>10.47</v>
+        <v>10.25</v>
       </c>
       <c r="I54" s="15">
-        <v>10.73</v>
+        <v>10.3</v>
       </c>
       <c r="J54" s="13">
-        <v>-2.4E-2</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -3286,31 +3286,31 @@
         <v>7</v>
       </c>
       <c r="B55" s="12">
-        <v>77919</v>
+        <v>75092</v>
       </c>
       <c r="C55" s="12">
-        <v>83249</v>
+        <v>78495</v>
       </c>
       <c r="D55" s="13">
-        <v>-6.4000000000000001E-2</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
       <c r="E55" s="12">
-        <v>5237</v>
+        <v>4985</v>
       </c>
       <c r="F55" s="12">
-        <v>5728</v>
+        <v>5185</v>
       </c>
       <c r="G55" s="13">
-        <v>-8.5999999999999993E-2</v>
+        <v>-3.9E-2</v>
       </c>
       <c r="H55" s="15">
-        <v>6.72</v>
+        <v>6.64</v>
       </c>
       <c r="I55" s="15">
-        <v>6.88</v>
+        <v>6.61</v>
       </c>
       <c r="J55" s="13">
-        <v>-2.3E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -3318,31 +3318,31 @@
         <v>56</v>
       </c>
       <c r="B56" s="12">
-        <v>613</v>
+        <v>591</v>
       </c>
       <c r="C56" s="12">
-        <v>636</v>
+        <v>604</v>
       </c>
       <c r="D56" s="13">
-        <v>-3.5999999999999997E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="E56" s="12">
+        <v>53</v>
+      </c>
+      <c r="F56" s="12">
         <v>58</v>
       </c>
-      <c r="F56" s="12">
-        <v>63</v>
-      </c>
       <c r="G56" s="13">
-        <v>-8.2000000000000003E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="H56" s="15">
-        <v>9.44</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="I56" s="15">
-        <v>9.91</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="J56" s="13">
-        <v>-4.7E-2</v>
+        <v>-6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -3350,31 +3350,31 @@
         <v>57</v>
       </c>
       <c r="B57" s="12">
-        <v>291985</v>
+        <v>272932</v>
       </c>
       <c r="C57" s="12">
-        <v>296055</v>
+        <v>275917</v>
       </c>
       <c r="D57" s="13">
-        <v>-1.4E-2</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="E57" s="12">
-        <v>29645</v>
+        <v>27574</v>
       </c>
       <c r="F57" s="12">
-        <v>30524</v>
+        <v>27740</v>
       </c>
       <c r="G57" s="13">
-        <v>-2.9000000000000001E-2</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="H57" s="15">
-        <v>10.15</v>
+        <v>10.1</v>
       </c>
       <c r="I57" s="15">
-        <v>10.31</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="J57" s="13">
-        <v>-1.6E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="182.1" customHeight="1" x14ac:dyDescent="0.25">
